--- a/data/05_input/zm.rn20j.xlsx
+++ b/data/05_input/zm.rn20j.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/EFE51815-ADCA-4428-B977-7FF9981D3FC6/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/Zmays_B73/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/DE533652-A5BD-4AC1-BDB1-BFA3F41285AC/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AFBE2F-1A2B-054B-95D7-57735A0C02FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA354B1-20F6-E343-A0E8-68A29346970F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12020" yWindow="6160" windowWidth="19440" windowHeight="14840" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,87 +66,6 @@
     <t>pericarp</t>
   </si>
   <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/B73_glume_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/B73_pericarp_R3.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/F1_glume_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/F1_silk_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/Mo17_glume_R3.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/Mo17_silk_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/B73_glume_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/B73_silk_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/F1_glume_R3.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/F1_silk_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/Mo17_pericarp_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/Mo17_silk_R3.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/B73_glume_R3.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/B73_silk_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/F1_pericarp_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/F1_silk_R3.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/Mo17_pericarp_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/B73_pericarp_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/B73_silk_R3.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/F1_pericarp_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/Mo17_glume_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/Mo17_pericarp_R3.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/B73_pericarp_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/F1_glume_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/F1_pericarp_R3.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/Mo17_glume_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/yihsuan2020/Mo17_silk_R1.fastq.gz</t>
-  </si>
-  <si>
     <t>s01</t>
   </si>
   <si>
@@ -235,6 +154,87 @@
   </si>
   <si>
     <t>SE</t>
+  </si>
+  <si>
+    <t>B73_glume_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>B73_glume_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>B73_glume_R3.fastq.gz</t>
+  </si>
+  <si>
+    <t>F1_glume_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>F1_glume_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>F1_glume_R3.fastq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_glume_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_glume_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_glume_R3.fastq.gz</t>
+  </si>
+  <si>
+    <t>B73_pericarp_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>B73_pericarp_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>B73_pericarp_R3.fastq.gz</t>
+  </si>
+  <si>
+    <t>F1_pericarp_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>F1_pericarp_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>F1_pericarp_R3.fastq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_pericarp_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_pericarp_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_pericarp_R3.fastq.gz</t>
+  </si>
+  <si>
+    <t>B73_silk_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>B73_silk_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>B73_silk_R3.fastq.gz</t>
+  </si>
+  <si>
+    <t>F1_silk_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>F1_silk_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>F1_silk_R3.fastq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_silk_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_silk_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_silk_R3.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,7 +636,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -648,15 +648,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -668,15 +668,15 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -688,135 +688,135 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -828,15 +828,15 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -848,15 +848,15 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -868,135 +868,135 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1008,15 +1008,15 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1028,15 +1028,15 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1048,130 +1048,130 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
         <v>69</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
